--- a/biology/Médecine/Jean_Alexandre_Barré/Jean_Alexandre_Barré.xlsx
+++ b/biology/Médecine/Jean_Alexandre_Barré/Jean_Alexandre_Barré.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jean_Alexandre_Barr%C3%A9</t>
+          <t>Jean_Alexandre_Barré</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jean Alexandre Barré[1] est un neurologue français, né le 25 mai 1880 à Chantenay-sur-Loire (commune rattachée à Nantes depuis 1908)[2] et mort le 24 avril 1967 à Strasbourg[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jean Alexandre Barré est un neurologue français, né le 25 mai 1880 à Chantenay-sur-Loire (commune rattachée à Nantes depuis 1908) et mort le 24 avril 1967 à Strasbourg.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jean_Alexandre_Barr%C3%A9</t>
+          <t>Jean_Alexandre_Barré</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean Alexandre Barré est le fils de René Jean Louis Barré, maître carrier, entrepreneur en Travaux publics, et de Clarisse Adèle Julienne Maillocheau. Il épouse Madeleine Tripet, fille du Dr Jules Tripet et sœur du peintre Louis Tripet.
 Il fait ses études de médecine à Nantes puis son internat à Paris, avec Joseph Babinski. Il est également l'élève d'Achille Souques.
-Durant la Première Guerre mondiale, il sert d'abord au front avec les ambulances, puis est affecté à l'unité neurologique de la 6e Armée, dirigée par Guillain. Les deux médecins se lient bientôt d'amitié et établissent une collaboration durable, dont la plus célèbre devait être leur description du syndrome de Guillain-Barré en 1916[4].
+Durant la Première Guerre mondiale, il sert d'abord au front avec les ambulances, puis est affecté à l'unité neurologique de la 6e Armée, dirigée par Guillain. Les deux médecins se lient bientôt d'amitié et établissent une collaboration durable, dont la plus célèbre devait être leur description du syndrome de Guillain-Barré en 1916.
 En 1919, recruté par le doyen Georges Weiss, Barré est nommé professeur de neurologie  à l'université de Strasbourg à l'âge de 39 ans.
 Comme son ami le Dr. Guillain, il est un auteur prolifique et publie plus de 800 articles scientifiques. Il est de plus le fondateur de la Revue d'oto-neuro-ophtalmologie. Clinicien fin et méticuleux, il forme de nombreux neurologues français et étrangers.
 En 1953, alors qu'il se rend à un congrès à Lisbonne, Barré est victime d'un accident vasculaire cérébral, qui le laisse paralysé. En dépit de cette invalidité, il participera encore à de nombreuses réunions scientifiques.
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Jean_Alexandre_Barr%C3%A9</t>
+          <t>Jean_Alexandre_Barré</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Œuvres et publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Les ostéoarthropathies du tabès. Étude critique, [Paris, thèses de médecine 1911-1912. No. 159], Paris, 1912.
 Des accidents oto-neuro-ophtalmologiques [Les troubles vestibulaires chez les traumatisés crâniens], [Extrait de la "Revue d'oto-neuro-ophtalmologie", octobre 1932], (S. l. , 1933). In-8°, p. 559-568 et 633-644.
@@ -575,7 +591,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Jean_Alexandre_Barr%C3%A9</t>
+          <t>Jean_Alexandre_Barré</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -593,12 +609,14 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve"> Croix de guerre 1914-1918 (1915)
  Médaille interalliée 1914-1918
  Médaille commémorative de la guerre 1914-1918
- Officier de la Légion d'honneur le 24 mars 1949[5].</t>
+ Officier de la Légion d'honneur le 24 mars 1949.</t>
         </is>
       </c>
     </row>
@@ -608,7 +626,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Jean_Alexandre_Barr%C3%A9</t>
+          <t>Jean_Alexandre_Barré</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -626,13 +644,15 @@
           <t>Éponymie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Signe de Barré:  signe du syndrome pyramidal marquant le déficit de la commande motrice volontaire au membre inférieur. Le patient couché sur le ventre, jambes fléchies à 90°, le déficit s'observe par la chute progressive de la jambe par atteinte des muscles fléchisseurs.
-Manœuvres (ou épreuves) de Barré[6]
-Syndrome Barré-Liéou[7],[8],[9]: syndrome sympathique cervical postérieur se manifestant par des vertiges, des acouphènes, des troubles visuels subjectifs.
+Manœuvres (ou épreuves) de Barré
+Syndrome Barré-Liéou: syndrome sympathique cervical postérieur se manifestant par des vertiges, des acouphènes, des troubles visuels subjectifs.
 syndrome Barré-Masson : tumeur bénigne du corps du glomus.
-Syndrome de Guillain-Barré[10],[11](ou polyradiculonévrite de Guillain, Barré et Strohl) : polyradiculonévrite aiguë inflammatoire (ou post-infectieuse).</t>
+Syndrome de Guillain-Barré,(ou polyradiculonévrite de Guillain, Barré et Strohl) : polyradiculonévrite aiguë inflammatoire (ou post-infectieuse).</t>
         </is>
       </c>
     </row>
